--- a/notebooks/input_data/stage_match.xlsx
+++ b/notebooks/input_data/stage_match.xlsx
@@ -145,9 +145,6 @@
     <t>eggXYt</t>
   </si>
   <si>
-    <t>Org_y</t>
-  </si>
-  <si>
     <t>American Student Assistance (ASA)</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Twilio.org</t>
+  </si>
+  <si>
+    <t>Ingredion</t>
   </si>
 </sst>
 </file>
@@ -554,16 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR18"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +693,7 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -830,7 +827,7 @@
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -964,7 +961,7 @@
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1232,7 +1229,7 @@
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1366,7 +1363,7 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1634,7 +1631,7 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1768,7 +1765,7 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1902,7 +1899,7 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2036,7 +2033,7 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2304,7 +2301,7 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2438,7 +2435,7 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2572,7 +2569,7 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2706,7 +2703,7 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2840,136 +2837,270 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>1</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-      <c r="AK18">
-        <v>1</v>
-      </c>
-      <c r="AL18">
-        <v>1</v>
-      </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AP18">
-        <v>1</v>
-      </c>
-      <c r="AQ18">
-        <v>1</v>
-      </c>
-      <c r="AR18">
-        <v>1</v>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/input_data/stage_match.xlsx
+++ b/notebooks/input_data/stage_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>AHSA Platform</t>
   </si>
@@ -145,58 +145,241 @@
     <t>eggXYt</t>
   </si>
   <si>
+    <t>Org_x</t>
+  </si>
+  <si>
+    <t>Access Afya</t>
+  </si>
+  <si>
+    <t>American Family Insurance Institute for Corporate and Social Impact</t>
+  </si>
+  <si>
     <t>American Student Assistance (ASA)</t>
   </si>
   <si>
+    <t>Americares</t>
+  </si>
+  <si>
+    <t>Antropia ESSEC</t>
+  </si>
+  <si>
+    <t>AutoCognita</t>
+  </si>
+  <si>
     <t>BMW Foundation Herbert Quandt</t>
   </si>
   <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>Blue Haven Initiative</t>
+  </si>
+  <si>
+    <t>Cambridge Associates</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Care 2 Communities</t>
+  </si>
+  <si>
+    <t>Cast Collective</t>
+  </si>
+  <si>
     <t>Clint Taylor</t>
   </si>
   <si>
     <t>Clorox</t>
   </si>
   <si>
+    <t>Closed Loop Partners</t>
+  </si>
+  <si>
+    <t>Comcast NBCUniversal</t>
+  </si>
+  <si>
+    <t>Compassion International</t>
+  </si>
+  <si>
     <t>Conduent</t>
   </si>
   <si>
+    <t>Covestro</t>
+  </si>
+  <si>
+    <t>Danaher</t>
+  </si>
+  <si>
     <t>Deshpande Foundation</t>
   </si>
   <si>
+    <t>Dubai Cares</t>
+  </si>
+  <si>
+    <t>EILEEN FISHER</t>
+  </si>
+  <si>
+    <t>EcoAdvisors</t>
+  </si>
+  <si>
+    <t>Enel Foundation and Strategic Studies Center</t>
+  </si>
+  <si>
     <t>Firefly Innovations</t>
   </si>
   <si>
+    <t>Georgia-Pacific Foundation</t>
+  </si>
+  <si>
+    <t>Gina's Collective</t>
+  </si>
+  <si>
+    <t>Global Fund to fight Aids, Tuberculosis and Malaria</t>
+  </si>
+  <si>
     <t>Grupo Salinas</t>
   </si>
   <si>
+    <t>Henkel</t>
+  </si>
+  <si>
+    <t>Ingredion</t>
+  </si>
+  <si>
+    <t>Innospark Ventures</t>
+  </si>
+  <si>
+    <t>Innovation Norway</t>
+  </si>
+  <si>
+    <t>KSF Impact</t>
+  </si>
+  <si>
     <t>Kevin Przybocki</t>
   </si>
   <si>
+    <t>Klaxoon</t>
+  </si>
+  <si>
+    <t>Leap Ventures</t>
+  </si>
+  <si>
+    <t>Lex Mundi Pro Bono Foundation</t>
+  </si>
+  <si>
     <t>Llamasoft</t>
   </si>
   <si>
+    <t>MIT Club of Northern California</t>
+  </si>
+  <si>
+    <t>Mannin Research</t>
+  </si>
+  <si>
+    <t>Merck for Mothers</t>
+  </si>
+  <si>
     <t>Merian Ventures</t>
   </si>
   <si>
     <t>Mondi Group</t>
   </si>
   <si>
+    <t>Morgridge Family Foundation</t>
+  </si>
+  <si>
+    <t>National Rongxiang Xu Foundation</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Corporation</t>
+  </si>
+  <si>
+    <t>Nuvo</t>
+  </si>
+  <si>
+    <t>Olam International</t>
+  </si>
+  <si>
+    <t>Oliver Wyman Group</t>
+  </si>
+  <si>
+    <t>Penn Foster</t>
+  </si>
+  <si>
     <t>Pfizer Inc.</t>
   </si>
   <si>
+    <t>Queen Rania Foundation for Education and Development</t>
+  </si>
+  <si>
+    <t>RISE</t>
+  </si>
+  <si>
+    <t>Save the Children</t>
+  </si>
+  <si>
+    <t>Seed Global Health</t>
+  </si>
+  <si>
     <t>Someone Else's Child Foundation</t>
   </si>
   <si>
+    <t>Soronko Solutions</t>
+  </si>
+  <si>
+    <t>Sresta Natural Bioproducts Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Stand Together</t>
+  </si>
+  <si>
+    <t>Strada Education Network</t>
+  </si>
+  <si>
+    <t>TGR Foundation</t>
+  </si>
+  <si>
+    <t>Tecnológico de Monterrey</t>
+  </si>
+  <si>
     <t>The Hague Business Agency</t>
   </si>
   <si>
     <t>The Kamath Family Foundation</t>
   </si>
   <si>
+    <t>The Nature Conservancy</t>
+  </si>
+  <si>
+    <t>The Pershing Square Foundation</t>
+  </si>
+  <si>
     <t>Twilio.org</t>
   </si>
   <si>
-    <t>Ingredion</t>
+    <t>UN Women</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Ultranauts Inc</t>
+  </si>
+  <si>
+    <t>Usizo Advisory Solutions</t>
+  </si>
+  <si>
+    <t>Women’s WorldWide Web (W4)</t>
+  </si>
+  <si>
+    <t>Xprize</t>
+  </si>
+  <si>
+    <t>YUM Brands</t>
+  </si>
+  <si>
+    <t>eBay</t>
   </si>
 </sst>
 </file>
@@ -554,13 +737,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR19"/>
+  <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:44">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +879,7 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -702,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -720,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -735,16 +921,16 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -753,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -762,52 +948,52 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>1</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>1</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>1</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -816,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -827,46 +1013,46 @@
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -881,19 +1067,19 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -908,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -917,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -932,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
         <v>1</v>
@@ -944,24 +1130,24 @@
         <v>1</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3">
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1095,7 +1281,7 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1229,7 +1415,7 @@
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1363,7 +1549,7 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1381,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1396,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1417,19 +1603,19 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1444,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>1</v>
@@ -1453,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1480,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
         <v>1</v>
@@ -1492,51 +1678,51 @@
         <v>1</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1551,19 +1737,19 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1578,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>1</v>
@@ -1587,13 +1773,13 @@
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>1</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -1602,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -1614,54 +1800,54 @@
         <v>1</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1670,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1727,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -1736,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <v>1</v>
@@ -1757,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -1765,7 +1951,7 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1783,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1798,10 +1984,10 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1819,19 +2005,19 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1846,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -1855,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1882,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>1</v>
@@ -1894,12 +2080,12 @@
         <v>1</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1908,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1926,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1941,16 +2127,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1959,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1968,52 +2154,52 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -2022,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -2033,58 +2219,58 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2093,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2102,52 +2288,52 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -2156,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -2167,7 +2353,7 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2200,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2301,7 +2487,7 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2319,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2334,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2355,19 +2541,19 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -2382,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -2391,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -2418,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
         <v>1</v>
@@ -2430,12 +2616,12 @@
         <v>1</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2468,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2569,37 +2755,37 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2608,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2629,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2638,52 +2824,52 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -2692,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -2703,7 +2889,7 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2721,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2739,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2757,19 +2943,19 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>1</v>
@@ -2784,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>1</v>
@@ -2793,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2820,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
         <v>1</v>
@@ -2832,12 +3018,12 @@
         <v>1</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2971,7 +3157,7 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3004,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3101,6 +3287,8046 @@
       </c>
       <c r="AR19">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>1</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>1</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44">
+      <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44">
+      <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
+      </c>
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <v>1</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
+      </c>
+      <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44">
+      <c r="A52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>1</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44">
+      <c r="A53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
+      </c>
+      <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44">
+      <c r="A55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
+      </c>
+      <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44">
+      <c r="A56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44">
+      <c r="A57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
+      </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44">
+      <c r="A58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
+      </c>
+      <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44">
+      <c r="A59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44">
+      <c r="A60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
+      </c>
+      <c r="AJ60">
+        <v>1</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44">
+      <c r="A61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44">
+      <c r="A62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
+      </c>
+      <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44">
+      <c r="A63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+      <c r="AC63">
+        <v>1</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
+      <c r="AH63">
+        <v>1</v>
+      </c>
+      <c r="AI63">
+        <v>1</v>
+      </c>
+      <c r="AJ63">
+        <v>1</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44">
+      <c r="A64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
+      <c r="AH64">
+        <v>1</v>
+      </c>
+      <c r="AI64">
+        <v>1</v>
+      </c>
+      <c r="AJ64">
+        <v>1</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:44">
+      <c r="A65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44">
+      <c r="A66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44">
+      <c r="A67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44">
+      <c r="A68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>1</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
+      </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44">
+      <c r="A69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>1</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69">
+        <v>1</v>
+      </c>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>1</v>
+      </c>
+      <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44">
+      <c r="A70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>1</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44">
+      <c r="A71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44">
+      <c r="A72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>1</v>
+      </c>
+      <c r="AI72">
+        <v>1</v>
+      </c>
+      <c r="AJ72">
+        <v>1</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:44">
+      <c r="A73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>1</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44">
+      <c r="A74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>1</v>
+      </c>
+      <c r="AI74">
+        <v>1</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:44">
+      <c r="A75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75">
+        <v>1</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AI75">
+        <v>1</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:44">
+      <c r="A76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>1</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>1</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44">
+      <c r="A77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>1</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
+      </c>
+      <c r="AF77">
+        <v>1</v>
+      </c>
+      <c r="AG77">
+        <v>1</v>
+      </c>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>1</v>
+      </c>
+      <c r="AJ77">
+        <v>1</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44">
+      <c r="A78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44">
+      <c r="A79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AH79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>1</v>
+      </c>
+      <c r="AJ79">
+        <v>1</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
